--- a/SIpos Kristóf/Oktv 2223/Földközi-tenger.xlsx
+++ b/SIpos Kristóf/Oktv 2223/Földközi-tenger.xlsx
@@ -1,26 +1,314 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sipos_1ce436d\Desktop\Oktv 2223\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2230B6-91CB-467A-BBF3-CC45A7A8505E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Munka1" sheetId="1" r:id="rId1"/>
+    <sheet name="Szállásfoglaltság" sheetId="1" r:id="rId1"/>
+    <sheet name="Horgászverseny" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="86">
+  <si>
+    <t>HÓNAP</t>
+  </si>
+  <si>
+    <t>Ország</t>
+  </si>
+  <si>
+    <t>Görögország</t>
+  </si>
+  <si>
+    <t>Spanyolország</t>
+  </si>
+  <si>
+    <t>Franciaország</t>
+  </si>
+  <si>
+    <t>Horvátország</t>
+  </si>
+  <si>
+    <t>Olaszország</t>
+  </si>
+  <si>
+    <t>Ciprus</t>
+  </si>
+  <si>
+    <t>Málta</t>
+  </si>
+  <si>
+    <t>Szlovénia</t>
+  </si>
+  <si>
+    <t>Montenegró</t>
+  </si>
+  <si>
+    <t>Észak Macedónia</t>
+  </si>
+  <si>
+    <t>Albánia</t>
+  </si>
+  <si>
+    <t>Törökország</t>
+  </si>
+  <si>
+    <t>Legjobb:</t>
+  </si>
+  <si>
+    <t>Alacsony!</t>
+  </si>
+  <si>
+    <t>Átlag</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>A horgász neve</t>
+  </si>
+  <si>
+    <t>Város</t>
+  </si>
+  <si>
+    <t>Egyesület</t>
+  </si>
+  <si>
+    <t>Verseny ideje</t>
+  </si>
+  <si>
+    <t>Legnagyobb hal fajtája</t>
+  </si>
+  <si>
+    <t>Legnagyobb hal tömege</t>
+  </si>
+  <si>
+    <t>A kifogott halak össztömege</t>
+  </si>
+  <si>
+    <t>Guppi Géza</t>
+  </si>
+  <si>
+    <t>Budapest</t>
+  </si>
+  <si>
+    <t>Zöld Plasztik</t>
+  </si>
+  <si>
+    <t>kardhal</t>
+  </si>
+  <si>
+    <t>Fischer Ferenc</t>
+  </si>
+  <si>
+    <t>Szombathely</t>
+  </si>
+  <si>
+    <t>Balogh Tanya</t>
+  </si>
+  <si>
+    <t>parti géb</t>
+  </si>
+  <si>
+    <t>Fertődi Ferenc</t>
+  </si>
+  <si>
+    <t>Bogács</t>
+  </si>
+  <si>
+    <t>Zozi Team</t>
+  </si>
+  <si>
+    <t>nagy rombuszhal</t>
+  </si>
+  <si>
+    <t>Tisza Kálmán</t>
+  </si>
+  <si>
+    <t>Halas Kolos</t>
+  </si>
+  <si>
+    <t>Serházzug</t>
+  </si>
+  <si>
+    <t>adriai tok</t>
+  </si>
+  <si>
+    <t>Balin Béla</t>
+  </si>
+  <si>
+    <t>Kinizsi</t>
+  </si>
+  <si>
+    <t>Dunai Tamás</t>
+  </si>
+  <si>
+    <t>fattyúhering</t>
+  </si>
+  <si>
+    <t>Compóházi Cecília</t>
+  </si>
+  <si>
+    <t>Fótújfalu</t>
+  </si>
+  <si>
+    <t>Koma HE</t>
+  </si>
+  <si>
+    <t>Balaton Mária</t>
+  </si>
+  <si>
+    <t>Hévíz</t>
+  </si>
+  <si>
+    <t>Postás</t>
+  </si>
+  <si>
+    <t>zebrafogasponty</t>
+  </si>
+  <si>
+    <t>Tavi-Molnár Lajos</t>
+  </si>
+  <si>
+    <t>Nagykanizsa</t>
+  </si>
+  <si>
+    <t>kékúszójú tonhal</t>
+  </si>
+  <si>
+    <t>Nádassy Nándor</t>
+  </si>
+  <si>
+    <t>Bajnok</t>
+  </si>
+  <si>
+    <t>Rábavidéki Róbert</t>
+  </si>
+  <si>
+    <t>Harcsa Héra</t>
+  </si>
+  <si>
+    <t>Iregszemcse</t>
+  </si>
+  <si>
+    <t>ICE Team</t>
+  </si>
+  <si>
+    <t>Kiskörei Kálmán</t>
+  </si>
+  <si>
+    <t>Tamási</t>
+  </si>
+  <si>
+    <t>Parti Vajk</t>
+  </si>
+  <si>
+    <t>FSHK</t>
+  </si>
+  <si>
+    <t>Kérész Károly</t>
+  </si>
+  <si>
+    <t>Csuka Csaba</t>
+  </si>
+  <si>
+    <t>Miske</t>
+  </si>
+  <si>
+    <t>Unicum</t>
+  </si>
+  <si>
+    <t>Pontyhúzó Péter</t>
+  </si>
+  <si>
+    <t>Monok</t>
+  </si>
+  <si>
+    <t>Illés Team</t>
+  </si>
+  <si>
+    <t>Marosi Zoltán</t>
+  </si>
+  <si>
+    <t>Értékelés</t>
+  </si>
+  <si>
+    <t>Ösztömeg</t>
+  </si>
+  <si>
+    <t>ebihal</t>
+  </si>
+  <si>
+    <t>sneci</t>
+  </si>
+  <si>
+    <t>kishal</t>
+  </si>
+  <si>
+    <t>nagyhal</t>
+  </si>
+  <si>
+    <t>mesterhorgász</t>
+  </si>
+  <si>
+    <t>Darabszám</t>
+  </si>
+  <si>
+    <t>A Legnagyobb hal tömege és fajtája:</t>
+  </si>
+  <si>
+    <t>Bogácsi versenyzők legnagyobb halának tömege:</t>
+  </si>
+  <si>
+    <t>A kifogott parti gébek átlagos tömege:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A Kinizsi és a Postás csapatából ennyiszer szerepelnek a táblázatbann:</t>
+  </si>
+  <si>
+    <t>A Zozi Team nagykanizsai versenyzői által kifogott halak össztömege:</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="5">
+    <numFmt numFmtId="165" formatCode="yyyy&quot;-&quot;mm"/>
+    <numFmt numFmtId="166" formatCode="0.000%"/>
+    <numFmt numFmtId="167" formatCode="0.00&quot; kg&quot;"/>
+    <numFmt numFmtId="168" formatCode="0&quot; kg&quot;"/>
+    <numFmt numFmtId="169" formatCode="0&quot; db&quot;"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +316,68 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4669AF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6F6F6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDCE6F1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0096DC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,18 +385,87 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC0C0C0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC0C0C0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC0C0C0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC0C0C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF00"/>
+      <color rgb="FFF6F6F6"/>
+      <color rgb="FFFF0000"/>
+      <color rgb="FF0096DC"/>
+      <color rgb="FFDCE6F1"/>
+      <color rgb="FFC0C0C0"/>
+      <color rgb="FF4669AF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -66,6 +475,1532 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="hu-HU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="hu-HU"/>
+              <a:t>Volt</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="hu-HU" baseline="0"/>
+              <a:t> Jugoszláv tagköztársaságok nyári adatai</a:t>
+            </a:r>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23301242198405447"/>
+          <c:y val="2.5636520868231927E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Szállásfoglaltság!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Észak Macedónia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent4">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Szállásfoglaltság!$B$1:$N$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Szállásfoglaltság!$B$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2021-08</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2021-09</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2021-10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2021-11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2021-12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2022-01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2022-02</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2022-03</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2022-04</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2022-05</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2022-06</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2022-07</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Szállásfoglaltság!$B$5:$N$5</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Szállásfoglaltság!$B$5:$M$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.000%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.38940000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.214</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.18890000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15359999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.14929999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.15920000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14929999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.17150000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.24410000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2954</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.39829999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6B9F-4408-9E38-1BBC1CD1E2D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Szállásfoglaltság!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Horvátország</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Szállásfoglaltság!$B$1:$N$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Szállásfoglaltság!$B$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2021-08</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2021-09</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2021-10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2021-11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2021-12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2022-01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2022-02</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2022-03</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2022-04</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2022-05</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2022-06</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2022-07</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Szállásfoglaltság!$B$8:$N$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Szállásfoglaltság!$B$8:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.000%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.95299999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.59699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.315</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.18099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.182</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.252</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.24099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.36699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.40100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.67600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.90600000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-6B9F-4408-9E38-1BBC1CD1E2D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Szállásfoglaltság!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Montenegró</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Szállásfoglaltság!$B$1:$N$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Szállásfoglaltság!$B$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2021-08</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2021-09</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2021-10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2021-11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2021-12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2022-01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2022-02</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2022-03</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2022-04</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2022-05</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2022-06</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2022-07</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Szállásfoglaltság!$B$10:$N$10</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Szállásfoglaltság!$B$10:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.000%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.80900000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.46300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.153</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.192</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.21299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.23599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.33900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.40300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.54200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.72899999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-6B9F-4408-9E38-1BBC1CD1E2D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Szállásfoglaltság!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Szlovénia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Szállásfoglaltság!$B$1:$N$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Szállásfoglaltság!$B$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2021-08</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2021-09</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2021-10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2021-11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2021-12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2022-01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2022-02</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2022-03</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2022-04</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2022-05</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2022-06</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2022-07</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Szállásfoglaltság!$B$13:$N$13</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Szállásfoglaltság!$B$13:$M$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.000%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.70120000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.50129999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32550000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.30809999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.23719999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.32429999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.32290000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.378</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.4037</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.56089999999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.57809999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-6B9F-4408-9E38-1BBC1CD1E2D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="529598176"/>
+        <c:axId val="529595656"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="529598176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="yyyy&quot;-&quot;mm" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="529595656"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="months"/>
+        <c:majorUnit val="1"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="529595656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="529598176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="hu-HU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>339235</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>163754</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>388327</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>117231</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagram 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8522B0DF-3F59-D1E8-988D-3D549BD64B95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +2265,3055 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="13" width="8.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4">
+        <v>44409</v>
+      </c>
+      <c r="C1" s="4">
+        <v>44440</v>
+      </c>
+      <c r="D1" s="4">
+        <v>44470</v>
+      </c>
+      <c r="E1" s="4">
+        <v>44501</v>
+      </c>
+      <c r="F1" s="4">
+        <v>44531</v>
+      </c>
+      <c r="G1" s="4">
+        <v>44562</v>
+      </c>
+      <c r="H1" s="4">
+        <v>44593</v>
+      </c>
+      <c r="I1" s="4">
+        <v>44621</v>
+      </c>
+      <c r="J1" s="4">
+        <v>44652</v>
+      </c>
+      <c r="K1" s="4">
+        <v>44682</v>
+      </c>
+      <c r="L1" s="4">
+        <v>44713</v>
+      </c>
+      <c r="M1" s="4">
+        <v>44743</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="10">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="C3" s="10">
+        <v>0.216</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="E3" s="10">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="F3" s="10">
+        <v>0.09</v>
+      </c>
+      <c r="G3" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="H3" s="10">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="I3" s="10">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="J3" s="10">
+        <v>9.4E-2</v>
+      </c>
+      <c r="K3" s="10">
+        <v>0.153</v>
+      </c>
+      <c r="L3" s="10">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="M3" s="10">
+        <v>0.23480000000000001</v>
+      </c>
+      <c r="N3" s="10">
+        <f>AVERAGE(B3:M3)</f>
+        <v>0.16315000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="11">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="E4" s="11">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="F4" s="11">
+        <v>0.26</v>
+      </c>
+      <c r="G4" s="11">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="H4" s="11">
+        <v>0.183</v>
+      </c>
+      <c r="I4" s="11">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="J4" s="11">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="K4" s="11">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="L4" s="11">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="M4" s="11">
+        <v>0.75380000000000003</v>
+      </c>
+      <c r="N4" s="11">
+        <f t="shared" ref="N4:N14" si="0">AVERAGE(B4:M4)</f>
+        <v>0.52656666666666674</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="10">
+        <v>0.38940000000000002</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0.214</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0.18890000000000001</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0.15359999999999999</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0.14929999999999999</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0.15920000000000001</v>
+      </c>
+      <c r="I5" s="10">
+        <v>0.14929999999999999</v>
+      </c>
+      <c r="J5" s="10">
+        <v>0.17150000000000001</v>
+      </c>
+      <c r="K5" s="10">
+        <v>0.24410000000000001</v>
+      </c>
+      <c r="L5" s="10">
+        <v>0.2954</v>
+      </c>
+      <c r="M5" s="10">
+        <v>0.39829999999999999</v>
+      </c>
+      <c r="N5" s="10">
+        <f t="shared" si="0"/>
+        <v>0.22075</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="11">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0.46</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0.45</v>
+      </c>
+      <c r="E6" s="11">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="F6" s="11">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0.37419999999999998</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="I6" s="11">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="J6" s="11">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="K6" s="11">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="L6" s="11">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="M6" s="11">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="N6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.46743333333333331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="10">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0.61</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0.189</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0.182</v>
+      </c>
+      <c r="I7" s="10">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="J7" s="10">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="K7" s="10">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="L7" s="10">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="M7" s="10">
+        <v>0.76</v>
+      </c>
+      <c r="N7" s="10">
+        <f t="shared" si="0"/>
+        <v>0.41158333333333336</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="11">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0.315</v>
+      </c>
+      <c r="E8" s="11">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="F8" s="11">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0.182</v>
+      </c>
+      <c r="H8" s="11">
+        <v>0.252</v>
+      </c>
+      <c r="I8" s="11">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="J8" s="11">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="K8" s="11">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="L8" s="11">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="M8" s="11">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="N8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.43691666666666668</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="G9" s="10">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="H9" s="10">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="I9" s="10">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="J9" s="10">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="K9" s="10">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="L9" s="10">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="M9" s="10">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="N9" s="10">
+        <f t="shared" si="0"/>
+        <v>0.48991666666666672</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="11">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="C10" s="11">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="D10" s="11">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E10" s="11">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="F10" s="11">
+        <v>0.153</v>
+      </c>
+      <c r="G10" s="11">
+        <v>0.192</v>
+      </c>
+      <c r="H10" s="11">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="I10" s="11">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="J10" s="11">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="K10" s="11">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="L10" s="11">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="M10" s="11">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="N10" s="11">
+        <f t="shared" si="0"/>
+        <v>0.38200000000000006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="10">
+        <v>0.752</v>
+      </c>
+      <c r="C11" s="10">
+        <v>0.497</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="F11" s="10">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="G11" s="10">
+        <v>0.311</v>
+      </c>
+      <c r="H11" s="10">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="I11" s="10">
+        <v>0.37</v>
+      </c>
+      <c r="J11" s="10">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="K11" s="10">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="L11" s="10">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="M11" s="10">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="N11" s="10">
+        <f t="shared" si="0"/>
+        <v>0.45283333333333337</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="11">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="C12" s="11">
+        <v>0.52739999999999998</v>
+      </c>
+      <c r="D12" s="11">
+        <v>0.5343</v>
+      </c>
+      <c r="E12" s="11">
+        <v>0.45650000000000002</v>
+      </c>
+      <c r="F12" s="11">
+        <v>0.40479999999999999</v>
+      </c>
+      <c r="G12" s="11">
+        <v>0.3357</v>
+      </c>
+      <c r="H12" s="11">
+        <v>0.4511</v>
+      </c>
+      <c r="I12" s="11">
+        <v>0.47270000000000001</v>
+      </c>
+      <c r="J12" s="11">
+        <v>0.57079999999999997</v>
+      </c>
+      <c r="K12" s="11">
+        <v>0.55679999999999996</v>
+      </c>
+      <c r="L12" s="11">
+        <v>0.64480000000000004</v>
+      </c>
+      <c r="M12" s="11">
+        <v>0.73440000000000005</v>
+      </c>
+      <c r="N12" s="11">
+        <f t="shared" si="0"/>
+        <v>0.53060833333333335</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="10">
+        <v>0.70120000000000005</v>
+      </c>
+      <c r="C13" s="10">
+        <v>0.50129999999999997</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0.32550000000000001</v>
+      </c>
+      <c r="F13" s="10">
+        <v>0.30809999999999998</v>
+      </c>
+      <c r="G13" s="10">
+        <v>0.23719999999999999</v>
+      </c>
+      <c r="H13" s="10">
+        <v>0.32429999999999998</v>
+      </c>
+      <c r="I13" s="10">
+        <v>0.32290000000000002</v>
+      </c>
+      <c r="J13" s="10">
+        <v>0.378</v>
+      </c>
+      <c r="K13" s="10">
+        <v>0.4037</v>
+      </c>
+      <c r="L13" s="10">
+        <v>0.56089999999999995</v>
+      </c>
+      <c r="M13" s="10">
+        <v>0.57809999999999995</v>
+      </c>
+      <c r="N13" s="10">
+        <f t="shared" si="0"/>
+        <v>0.42468333333333336</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11">
+        <v>0.67110000000000003</v>
+      </c>
+      <c r="C14" s="11">
+        <v>0.56630000000000003</v>
+      </c>
+      <c r="D14" s="11">
+        <v>0.55120000000000002</v>
+      </c>
+      <c r="E14" s="11">
+        <v>0.35749999999999998</v>
+      </c>
+      <c r="F14" s="11">
+        <v>0.34449999999999997</v>
+      </c>
+      <c r="G14" s="11">
+        <v>0.313</v>
+      </c>
+      <c r="H14" s="11">
+        <v>0.3165</v>
+      </c>
+      <c r="I14" s="11">
+        <v>0.38379999999999997</v>
+      </c>
+      <c r="J14" s="11">
+        <v>0.31269999999999998</v>
+      </c>
+      <c r="K14" s="11">
+        <v>0.48420000000000002</v>
+      </c>
+      <c r="L14" s="11">
+        <v>0.58819999999999995</v>
+      </c>
+      <c r="M14" s="11">
+        <v>0.61250000000000004</v>
+      </c>
+      <c r="N14" s="11">
+        <f t="shared" si="0"/>
+        <v>0.45845833333333336</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="9" t="str">
+        <f>IF(MIN(B3:B14)&lt;10%,"!!!"," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C15" s="9" t="str">
+        <f t="shared" ref="C15:M15" si="1">IF(MIN(C3:C14)&lt;10%,"!!!"," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D15" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E15" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>!!!</v>
+      </c>
+      <c r="F15" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>!!!</v>
+      </c>
+      <c r="G15" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>!!!</v>
+      </c>
+      <c r="H15" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>!!!</v>
+      </c>
+      <c r="I15" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>!!!</v>
+      </c>
+      <c r="J15" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>!!!</v>
+      </c>
+      <c r="K15" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L15" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="M15" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="10">
+        <f>(MAX(G3:G14))</f>
+        <v>0.37419999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:M14">
+    <sortCondition ref="A3:A14"/>
+  </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="B2:N2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91AAA301-18BF-4A02-9228-9CD43BC3FBF7}">
+  <dimension ref="A1:M83"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
+    <col min="7" max="7" width="26.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="64.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="15">
+        <v>44743</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="14">
+        <v>0.98</v>
+      </c>
+      <c r="G3" s="14">
+        <v>1.72</v>
+      </c>
+      <c r="H3" t="str">
+        <f>VLOOKUP(G3,$K$3:$L$7,2,1)</f>
+        <v>ebihal</v>
+      </c>
+      <c r="K3" s="17">
+        <v>0</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="M3" s="18">
+        <f>COUNTIFS(H:H,L3)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="15">
+        <v>44743</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="14">
+        <v>1.74</v>
+      </c>
+      <c r="G4" s="14">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" ref="H4:H67" si="0">VLOOKUP(G4,$K$3:$L$7,2,1)</f>
+        <v>sneci</v>
+      </c>
+      <c r="K4" s="17">
+        <v>3</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="M4" s="18">
+        <f t="shared" ref="M4:M7" si="1">COUNTIFS(H:H,L4)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="15">
+        <v>44744</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="14">
+        <v>0.84</v>
+      </c>
+      <c r="G5" s="14">
+        <v>2.1</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>ebihal</v>
+      </c>
+      <c r="K5" s="17">
+        <v>5</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" s="18">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="15">
+        <v>44744</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="14">
+        <v>1.82</v>
+      </c>
+      <c r="G6" s="14">
+        <v>3.25</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>sneci</v>
+      </c>
+      <c r="K6" s="17">
+        <v>7</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" s="18">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="15">
+        <v>44744</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="14">
+        <v>0.96</v>
+      </c>
+      <c r="G7" s="14">
+        <v>1.71</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>ebihal</v>
+      </c>
+      <c r="K7" s="17">
+        <v>9</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="M7" s="18">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="15">
+        <v>44745</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="14">
+        <v>1.72</v>
+      </c>
+      <c r="G8" s="14">
+        <v>3.17</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v>sneci</v>
+      </c>
+      <c r="J8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="15">
+        <v>44746</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="14">
+        <v>2.7</v>
+      </c>
+      <c r="G9" s="14">
+        <v>5.91</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>kishal</v>
+      </c>
+      <c r="L9" s="14">
+        <f>MAX(F:F)</f>
+        <v>5.92</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="15">
+        <v>44746</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="14">
+        <v>1.76</v>
+      </c>
+      <c r="G10" s="14">
+        <v>4.87</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v>sneci</v>
+      </c>
+      <c r="J10" t="s">
+        <v>82</v>
+      </c>
+      <c r="M10" s="19"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="15">
+        <v>44747</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="14">
+        <v>1.79</v>
+      </c>
+      <c r="G11" s="14">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v>sneci</v>
+      </c>
+      <c r="M11" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="15">
+        <v>44747</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="14">
+        <v>0.91</v>
+      </c>
+      <c r="G12" s="14">
+        <v>1.78</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v>ebihal</v>
+      </c>
+      <c r="J12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="15">
+        <v>44748</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="14">
+        <v>0.97</v>
+      </c>
+      <c r="G13" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
+        <v>ebihal</v>
+      </c>
+      <c r="M13" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="15">
+        <v>44748</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="14">
+        <v>1.84</v>
+      </c>
+      <c r="G14" s="14">
+        <v>4.88</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
+        <v>sneci</v>
+      </c>
+      <c r="J14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="15">
+        <v>44748</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="14">
+        <v>2.86</v>
+      </c>
+      <c r="G15" s="14">
+        <v>5.33</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="0"/>
+        <v>kishal</v>
+      </c>
+      <c r="M15" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="15">
+        <v>44749</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="14">
+        <v>2</v>
+      </c>
+      <c r="G16" s="14">
+        <v>3.87</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="0"/>
+        <v>sneci</v>
+      </c>
+      <c r="J16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="15">
+        <v>44749</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="14">
+        <v>1.55</v>
+      </c>
+      <c r="G17" s="14">
+        <v>3.7</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="0"/>
+        <v>sneci</v>
+      </c>
+      <c r="M17" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="15">
+        <v>44749</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="14">
+        <v>1.55</v>
+      </c>
+      <c r="G18" s="14">
+        <v>3.68</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="0"/>
+        <v>sneci</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="15">
+        <v>44750</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="14">
+        <v>2.57</v>
+      </c>
+      <c r="G19" s="14">
+        <v>6.66</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="0"/>
+        <v>kishal</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="15">
+        <v>44750</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="14">
+        <v>3.1</v>
+      </c>
+      <c r="G20" s="14">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="0"/>
+        <v>nagyhal</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="15">
+        <v>44750</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="14">
+        <v>1.72</v>
+      </c>
+      <c r="G21" s="14">
+        <v>3.26</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="0"/>
+        <v>sneci</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="15">
+        <v>44751</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="14">
+        <v>2.68</v>
+      </c>
+      <c r="G22" s="14">
+        <v>5.71</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="0"/>
+        <v>kishal</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="15">
+        <v>44751</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="14">
+        <v>1.78</v>
+      </c>
+      <c r="G23" s="14">
+        <v>3.18</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="0"/>
+        <v>sneci</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="15">
+        <v>44753</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="G24" s="14">
+        <v>4.88</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="0"/>
+        <v>sneci</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="15">
+        <v>44753</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" s="14">
+        <v>2.85</v>
+      </c>
+      <c r="G25" s="14">
+        <v>5.59</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="0"/>
+        <v>kishal</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="15">
+        <v>44753</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" s="14">
+        <v>4.84</v>
+      </c>
+      <c r="G26" s="14">
+        <v>6.54</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="0"/>
+        <v>kishal</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="15">
+        <v>44754</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="14">
+        <v>2.87</v>
+      </c>
+      <c r="G27" s="14">
+        <v>5.33</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="0"/>
+        <v>kishal</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="15">
+        <v>44754</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" s="14">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="G28" s="14">
+        <v>6.71</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="0"/>
+        <v>kishal</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="15">
+        <v>44754</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F29" s="14">
+        <v>2.92</v>
+      </c>
+      <c r="G29" s="14">
+        <v>5.31</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="0"/>
+        <v>kishal</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="15">
+        <v>44754</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" s="14">
+        <v>5.9</v>
+      </c>
+      <c r="G30" s="14">
+        <v>9.15</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="0"/>
+        <v>mesterhorgász</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="15">
+        <v>44754</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F31" s="14">
+        <v>2.68</v>
+      </c>
+      <c r="G31" s="14">
+        <v>5.68</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="0"/>
+        <v>kishal</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="15">
+        <v>44755</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" s="14">
+        <v>2.65</v>
+      </c>
+      <c r="G32" s="14">
+        <v>5.65</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="0"/>
+        <v>kishal</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="15">
+        <v>44755</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F33" s="14">
+        <v>2.79</v>
+      </c>
+      <c r="G33" s="14">
+        <v>5.9</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="0"/>
+        <v>kishal</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="15">
+        <v>44755</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F34" s="14">
+        <v>2.8</v>
+      </c>
+      <c r="G34" s="14">
+        <v>5.5</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="0"/>
+        <v>kishal</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" s="15">
+        <v>44756</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" s="14">
+        <v>3.81</v>
+      </c>
+      <c r="G35" s="14">
+        <v>3.82</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="0"/>
+        <v>sneci</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="15">
+        <v>44756</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F36" s="14">
+        <v>2.85</v>
+      </c>
+      <c r="G36" s="14">
+        <v>5.5</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="0"/>
+        <v>kishal</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" s="15">
+        <v>44756</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" s="14">
+        <v>3.55</v>
+      </c>
+      <c r="G37" s="14">
+        <v>9.01</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="0"/>
+        <v>mesterhorgász</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="15">
+        <v>44756</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F38" s="14">
+        <v>2.89</v>
+      </c>
+      <c r="G38" s="14">
+        <v>5.31</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="0"/>
+        <v>kishal</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" s="15">
+        <v>44756</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F39" s="14">
+        <v>3.09</v>
+      </c>
+      <c r="G39" s="14">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="0"/>
+        <v>nagyhal</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="15">
+        <v>44757</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" s="14">
+        <v>5.89</v>
+      </c>
+      <c r="G40" s="14">
+        <v>9.09</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="0"/>
+        <v>mesterhorgász</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" s="15">
+        <v>44757</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F41" s="14">
+        <v>3.12</v>
+      </c>
+      <c r="G41" s="14">
+        <v>8.08</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="0"/>
+        <v>nagyhal</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" s="15">
+        <v>44758</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F42" s="14">
+        <v>3.12</v>
+      </c>
+      <c r="G42" s="14">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="0"/>
+        <v>nagyhal</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" s="15">
+        <v>44758</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F43" s="14">
+        <v>0.88</v>
+      </c>
+      <c r="G43" s="14">
+        <v>2.06</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="0"/>
+        <v>ebihal</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" s="15">
+        <v>44758</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" s="14">
+        <v>3.78</v>
+      </c>
+      <c r="G44" s="14">
+        <v>4.78</v>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="0"/>
+        <v>sneci</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D45" s="15">
+        <v>44758</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F45" s="14">
+        <v>1.54</v>
+      </c>
+      <c r="G45" s="14">
+        <v>3.64</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="0"/>
+        <v>sneci</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D46" s="15">
+        <v>44758</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F46" s="14">
+        <v>4.83</v>
+      </c>
+      <c r="G46" s="14">
+        <v>8.98</v>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="0"/>
+        <v>nagyhal</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D47" s="15">
+        <v>44759</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F47" s="14">
+        <v>1.57</v>
+      </c>
+      <c r="G47" s="14">
+        <v>3.64</v>
+      </c>
+      <c r="H47" t="str">
+        <f t="shared" si="0"/>
+        <v>sneci</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D48" s="15">
+        <v>44759</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F48" s="14">
+        <v>4.83</v>
+      </c>
+      <c r="G48" s="14">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="H48" t="str">
+        <f t="shared" si="0"/>
+        <v>mesterhorgász</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49" s="15">
+        <v>44759</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F49" s="14">
+        <v>4.87</v>
+      </c>
+      <c r="G49" s="14">
+        <v>6.6</v>
+      </c>
+      <c r="H49" t="str">
+        <f t="shared" si="0"/>
+        <v>kishal</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D50" s="15">
+        <v>44759</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F50" s="14">
+        <v>5.82</v>
+      </c>
+      <c r="G50" s="14">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="H50" t="str">
+        <f t="shared" si="0"/>
+        <v>mesterhorgász</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D51" s="15">
+        <v>44760</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F51" s="14">
+        <v>1.75</v>
+      </c>
+      <c r="G51" s="14">
+        <v>4.82</v>
+      </c>
+      <c r="H51" t="str">
+        <f t="shared" si="0"/>
+        <v>sneci</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D52" s="15">
+        <v>44760</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F52" s="14">
+        <v>1.75</v>
+      </c>
+      <c r="G52" s="14">
+        <v>4.84</v>
+      </c>
+      <c r="H52" t="str">
+        <f t="shared" si="0"/>
+        <v>sneci</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D53" s="15">
+        <v>44760</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F53" s="14">
+        <v>5.86</v>
+      </c>
+      <c r="G53" s="14">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="H53" t="str">
+        <f t="shared" si="0"/>
+        <v>mesterhorgász</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D54" s="15">
+        <v>44761</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F54" s="14">
+        <v>1.77</v>
+      </c>
+      <c r="G54" s="14">
+        <v>4.91</v>
+      </c>
+      <c r="H54" t="str">
+        <f t="shared" si="0"/>
+        <v>sneci</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D55" s="15">
+        <v>44761</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" s="14">
+        <v>2.04</v>
+      </c>
+      <c r="G55" s="14">
+        <v>3.83</v>
+      </c>
+      <c r="H55" t="str">
+        <f t="shared" si="0"/>
+        <v>sneci</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D56" s="15">
+        <v>44762</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F56" s="14">
+        <v>2.62</v>
+      </c>
+      <c r="G56" s="14">
+        <v>5.68</v>
+      </c>
+      <c r="H56" t="str">
+        <f t="shared" si="0"/>
+        <v>kishal</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D57" s="15">
+        <v>44762</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F57" s="14">
+        <v>2.79</v>
+      </c>
+      <c r="G57" s="14">
+        <v>5.93</v>
+      </c>
+      <c r="H57" t="str">
+        <f t="shared" si="0"/>
+        <v>kishal</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D58" s="15">
+        <v>44762</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F58" s="14">
+        <v>2.83</v>
+      </c>
+      <c r="G58" s="14">
+        <v>5.53</v>
+      </c>
+      <c r="H58" t="str">
+        <f t="shared" si="0"/>
+        <v>kishal</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D59" s="15">
+        <v>44762</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F59" s="14">
+        <v>0.88</v>
+      </c>
+      <c r="G59" s="14">
+        <v>2.11</v>
+      </c>
+      <c r="H59" t="str">
+        <f t="shared" si="0"/>
+        <v>ebihal</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D60" s="15">
+        <v>44764</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F60" s="14">
+        <v>2.89</v>
+      </c>
+      <c r="G60" s="14">
+        <v>5.53</v>
+      </c>
+      <c r="H60" t="str">
+        <f t="shared" si="0"/>
+        <v>kishal</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" s="15">
+        <v>44765</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F61" s="14">
+        <v>1.62</v>
+      </c>
+      <c r="G61" s="14">
+        <v>3.63</v>
+      </c>
+      <c r="H61" t="str">
+        <f t="shared" si="0"/>
+        <v>sneci</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D62" s="15">
+        <v>44765</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F62" s="14">
+        <v>1.72</v>
+      </c>
+      <c r="G62" s="14">
+        <v>4.84</v>
+      </c>
+      <c r="H62" t="str">
+        <f t="shared" si="0"/>
+        <v>sneci</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D63" s="15">
+        <v>44765</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F63" s="14">
+        <v>3.11</v>
+      </c>
+      <c r="G63" s="14">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="H63" t="str">
+        <f t="shared" si="0"/>
+        <v>nagyhal</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D64" s="15">
+        <v>44766</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F64" s="14">
+        <v>3.13</v>
+      </c>
+      <c r="G64" s="14">
+        <v>8.14</v>
+      </c>
+      <c r="H64" t="str">
+        <f t="shared" si="0"/>
+        <v>nagyhal</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D65" s="15">
+        <v>44766</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F65" s="14">
+        <v>1.75</v>
+      </c>
+      <c r="G65" s="14">
+        <v>4.88</v>
+      </c>
+      <c r="H65" t="str">
+        <f t="shared" si="0"/>
+        <v>sneci</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D66" s="15">
+        <v>44766</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F66" s="14">
+        <v>1.77</v>
+      </c>
+      <c r="G66" s="14">
+        <v>4.87</v>
+      </c>
+      <c r="H66" t="str">
+        <f t="shared" si="0"/>
+        <v>sneci</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D67" s="15">
+        <v>44767</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F67" s="14">
+        <v>4.82</v>
+      </c>
+      <c r="G67" s="14">
+        <v>6.54</v>
+      </c>
+      <c r="H67" t="str">
+        <f t="shared" si="0"/>
+        <v>kishal</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D68" s="15">
+        <v>44767</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" s="14">
+        <v>1.98</v>
+      </c>
+      <c r="G68" s="14">
+        <v>3.86</v>
+      </c>
+      <c r="H68" t="str">
+        <f t="shared" ref="H68:H83" si="2">VLOOKUP(G68,$K$3:$L$7,2,1)</f>
+        <v>sneci</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D69" s="15">
+        <v>44768</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F69" s="14">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="G69" s="14">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="H69" t="str">
+        <f t="shared" si="2"/>
+        <v>nagyhal</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D70" s="15">
+        <v>44768</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" s="14">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="G70" s="14">
+        <v>3.83</v>
+      </c>
+      <c r="H70" t="str">
+        <f t="shared" si="2"/>
+        <v>sneci</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D71" s="15">
+        <v>44768</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" s="14">
+        <v>5.85</v>
+      </c>
+      <c r="G71" s="14">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="H71" t="str">
+        <f t="shared" si="2"/>
+        <v>mesterhorgász</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D72" s="15">
+        <v>44769</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F72" s="14">
+        <v>2.6</v>
+      </c>
+      <c r="G72" s="14">
+        <v>5.68</v>
+      </c>
+      <c r="H72" t="str">
+        <f t="shared" si="2"/>
+        <v>kishal</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D73" s="15">
+        <v>44769</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" s="14">
+        <v>5.92</v>
+      </c>
+      <c r="G73" s="14">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="H73" t="str">
+        <f t="shared" si="2"/>
+        <v>mesterhorgász</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D74" s="15">
+        <v>44769</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" s="14">
+        <v>5.92</v>
+      </c>
+      <c r="G74" s="14">
+        <v>9.14</v>
+      </c>
+      <c r="H74" t="str">
+        <f t="shared" si="2"/>
+        <v>mesterhorgász</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75" s="15">
+        <v>44770</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F75" s="14">
+        <v>2.84</v>
+      </c>
+      <c r="G75" s="14">
+        <v>5.3</v>
+      </c>
+      <c r="H75" t="str">
+        <f t="shared" si="2"/>
+        <v>kishal</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D76" s="15">
+        <v>44771</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F76" s="14">
+        <v>2.85</v>
+      </c>
+      <c r="G76" s="14">
+        <v>5.54</v>
+      </c>
+      <c r="H76" t="str">
+        <f t="shared" si="2"/>
+        <v>kishal</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D77" s="15">
+        <v>44771</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F77" s="14">
+        <v>2.88</v>
+      </c>
+      <c r="G77" s="14">
+        <v>5.5</v>
+      </c>
+      <c r="H77" t="str">
+        <f t="shared" si="2"/>
+        <v>kishal</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" s="15">
+        <v>44772</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F78" s="14">
+        <v>3.3</v>
+      </c>
+      <c r="G78" s="14">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="H78" t="str">
+        <f t="shared" si="2"/>
+        <v>sneci</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D79" s="15">
+        <v>44772</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F79" s="14">
+        <v>3.35</v>
+      </c>
+      <c r="G79" s="14">
+        <v>4.75</v>
+      </c>
+      <c r="H79" t="str">
+        <f t="shared" si="2"/>
+        <v>sneci</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D80" s="15">
+        <v>44772</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F80" s="14">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="G80" s="14">
+        <v>6.59</v>
+      </c>
+      <c r="H80" t="str">
+        <f t="shared" si="2"/>
+        <v>kishal</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D81" s="15">
+        <v>44773</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" s="14">
+        <v>5.85</v>
+      </c>
+      <c r="G81" s="14">
+        <v>9.16</v>
+      </c>
+      <c r="H81" t="str">
+        <f t="shared" si="2"/>
+        <v>mesterhorgász</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D82" s="15">
+        <v>44773</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F82" s="14">
+        <v>5.86</v>
+      </c>
+      <c r="G82" s="14">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="H82" t="str">
+        <f t="shared" si="2"/>
+        <v>mesterhorgász</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D83" s="15">
+        <v>44773</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F83" s="14">
+        <v>5.92</v>
+      </c>
+      <c r="G83" s="14">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="H83" t="str">
+        <f t="shared" si="2"/>
+        <v>mesterhorgász</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>